--- a/лекция 21.10.23(ЛАБ_3)/лаб_3.xlsx
+++ b/лекция 21.10.23(ЛАБ_3)/лаб_3.xlsx
@@ -1,56 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A2B155-4D28-4BA3-99B3-8F87AAF9808D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="ЛистНет" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$A$13:$B$13</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$D$12:$E$12</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">ЛистНет!$A$13:$B$13</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$A$13:$B$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$D$13</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$D$14</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$D$15</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$D$12:$E$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">ЛистНет!$A$13:$B$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$G$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">ЛистНет!$D$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$G$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">ЛистНет!$D$14</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$G$17</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">ЛистНет!$D$15</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Лист1!$H$7</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Лист1!$H$7</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Лист1!$H$7</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$A$15</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$G$19</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">ЛистНет!$A$15</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$E$6</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$E$7</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Лист1!$E$8</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Лист1!$D$13:$E$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$J$15</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">ЛистНет!$E$6</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$J$16</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">ЛистНет!$E$7</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Лист1!$J$17</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">ЛистНет!$E$8</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Лист1!$F$7</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Лист1!$F$7</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Лист1!$F$7</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>Наименование ресурса</t>
   </si>
@@ -89,17 +139,74 @@
     <t>прод. В</t>
   </si>
   <si>
-    <t>1)</t>
-  </si>
-  <si>
     <t>Переменные модели</t>
+  </si>
+  <si>
+    <t>Выпуск продукции</t>
+  </si>
+  <si>
+    <t>Нижняя граница</t>
+  </si>
+  <si>
+    <t>Х1</t>
+  </si>
+  <si>
+    <t>Х2</t>
+  </si>
+  <si>
+    <t>Ограничения модели</t>
+  </si>
+  <si>
+    <t>Целевая функция</t>
+  </si>
+  <si>
+    <t>Выручка (руб.)</t>
+  </si>
+  <si>
+    <t>Оборудование (ст.час)</t>
+  </si>
+  <si>
+    <t>Сырьё (кг)</t>
+  </si>
+  <si>
+    <t>Труд (руб.)</t>
+  </si>
+  <si>
+    <t>Левая часть</t>
+  </si>
+  <si>
+    <t>Знак</t>
+  </si>
+  <si>
+    <t>Правая часть</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Модель отчёта производительной фирмы</t>
+  </si>
+  <si>
+    <t>Целевая ячейка</t>
+  </si>
+  <si>
+    <t>Расходы ресурса</t>
+  </si>
+  <si>
+    <t>Вологжанин Егор, Вариант №7</t>
+  </si>
+  <si>
+    <t>Студент группы ОМ-20.04.01.04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Задача </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +223,7 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -124,7 +231,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -139,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -199,25 +313,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -232,14 +356,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -262,20 +410,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>524726</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152779</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>181826</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124204</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5E3CE5-6136-4C53-852F-6A24072E2741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -288,7 +442,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10887075" y="781050"/>
+          <a:off x="13592175" y="733425"/>
           <a:ext cx="6096851" cy="2715004"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -300,20 +454,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>10075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9734</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>238334</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DEDA46-373D-4155-955D-13B6AFDB91AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -326,7 +486,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4600575" y="114300"/>
+          <a:off x="9620250" y="742950"/>
           <a:ext cx="3943900" cy="1495634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -338,20 +498,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600511</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>67090</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76636</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169C8BB5-727C-4A95-89DB-9240A6BA1B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -364,8 +530,233 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5400675" y="1676400"/>
+          <a:off x="10363200" y="2324100"/>
           <a:ext cx="3124636" cy="2972215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>419797</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07364651-65A8-47D6-89C4-28573E3F5FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716000" y="3476625"/>
+          <a:ext cx="4991797" cy="2038635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>181826</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124204</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13592175" y="733425"/>
+          <a:ext cx="6096851" cy="2715004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>238334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9620250" y="742950"/>
+          <a:ext cx="3943900" cy="1495634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76636</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="2371725"/>
+          <a:ext cx="3124636" cy="2972215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>334072</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>181260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8ABFE9-E748-4F48-8033-2C8F864E9092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="142875"/>
+          <a:ext cx="4991797" cy="2038635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,285 +1030,750 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91828D00-8420-4D79-9C4B-D3B955FF1221}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E5" s="2">
         <v>238</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="F5" s="2">
+        <f>C5*$C$9+D5*$D$9</f>
+        <v>238</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6">
+      <c r="B6" s="6"/>
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E6" s="2">
         <v>211</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:F7" si="0">C6*$C$9+D6*$D$9</f>
+        <v>211</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6">
+      <c r="B7" s="6"/>
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E7" s="4">
         <v>476</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2">
         <v>194</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D8" s="3">
         <v>343</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2">
+        <f>C8*C9+D8*D9</f>
+        <v>21871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="2">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="6">
+        <f>SUMPRODUCT($D$12:$E$12,D15:E15)</f>
+        <v>238</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="6">
+        <v>238</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" ref="G16:G17" si="1">SUMPRODUCT($D$12:$E$12,D16:E16)</f>
+        <v>211</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="6">
+        <v>211</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
+        <v>433</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="6">
+        <v>476</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="2">
+        <v>194</v>
+      </c>
+      <c r="E19" s="2">
+        <v>343</v>
+      </c>
+      <c r="G19" s="6">
+        <f>D12*D19+E12*E19</f>
+        <v>21871</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="32">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2">
+        <v>194</v>
+      </c>
+      <c r="D9" s="3">
+        <v>343</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUMPRODUCT($D$13:$E$13,D16:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" ref="G17:G18" si="0">SUMPRODUCT($D$13:$E$13,D17:E17)</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="2">
+        <v>194</v>
+      </c>
+      <c r="E20" s="2">
+        <v>343</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
